--- a/wp-content/plugins/quiz-maker/admin/partials/questions/export_file/example_questions_export_simple.xlsx
+++ b/wp-content/plugins/quiz-maker/admin/partials/questions/export_file/example_questions_export_simple.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Question</t>
   </si>
@@ -68,13 +73,16 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>Question explanation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +128,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -444,24 +460,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,78 +485,81 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -548,7 +567,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A2:G4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 A2:B4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>